--- a/docs/pass_store.xlsx
+++ b/docs/pass_store.xlsx
@@ -94,12 +94,6 @@
     <t>BillSearchStore</t>
   </si>
   <si>
-    <t>BillMonthSearchStore</t>
-  </si>
-  <si>
-    <t>BillYearSearchStore</t>
-  </si>
-  <si>
     <t>PayStore</t>
   </si>
   <si>
@@ -1734,6 +1728,14 @@
   </si>
   <si>
     <t>SimpleBillSearchStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BillSearchMonthStore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BillSearchYearStore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2106,8 +2108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2122,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
@@ -2130,7 +2132,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -2138,7 +2140,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -2146,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -2154,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -2162,7 +2164,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
@@ -2170,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
@@ -2178,7 +2180,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
@@ -2186,7 +2188,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -2194,7 +2196,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
@@ -2202,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
@@ -2210,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
@@ -2218,7 +2220,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
@@ -2226,7 +2228,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
@@ -2234,7 +2236,7 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -2242,7 +2244,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
@@ -2250,7 +2252,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
@@ -2258,223 +2260,223 @@
         <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
